--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3996.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3996.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.3615794429759</v>
+        <v>1.406155467033386</v>
       </c>
       <c r="B1">
-        <v>2.533322412634561</v>
+        <v>3.235643625259399</v>
       </c>
       <c r="C1">
-        <v>3.398873658751541</v>
+        <v>5.827722549438477</v>
       </c>
       <c r="D1">
-        <v>3.973786873396159</v>
+        <v>4.910142421722412</v>
       </c>
       <c r="E1">
-        <v>1.661935856500825</v>
+        <v>1.179466128349304</v>
       </c>
     </row>
   </sheetData>
